--- a/xinbang/公众号.xlsx
+++ b/xinbang/公众号.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\spider\xinbang\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="5715" windowWidth="12765" xWindow="0" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>account</t>
   </si>
   <si>
@@ -38,9 +30,6 @@
     <t>序号</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>微信号</t>
   </si>
   <si>
@@ -50,47 +39,60 @@
     <t>if_fashion888</t>
   </si>
   <si>
+    <t>时尚</t>
+  </si>
+  <si>
     <t>microhugo</t>
   </si>
   <si>
+    <t>情感</t>
+  </si>
+  <si>
     <t>Femorning</t>
   </si>
   <si>
+    <t>财富</t>
+  </si>
+  <si>
     <t>huazhuangshimk</t>
   </si>
   <si>
     <t>dujinyong6</t>
+  </si>
+  <si>
+    <t>文化</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,30 +108,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -419,119 +412,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="15.5"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="11.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="5" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/xinbang/公众号.xlsx
+++ b/xinbang/公众号.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -428,8 +428,8 @@
     <col customWidth="1" max="1" min="1" style="1" width="9"/>
     <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="15.5"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="11.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="9"/>
-    <col customWidth="1" max="16384" min="5" style="1" width="9"/>
+    <col customWidth="1" max="5" min="4" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
